--- a/Jogos_do_Dia/2023-01-16_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-01-16_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="G2" t="n">
-        <v>3.15</v>
+        <v>2.99</v>
       </c>
       <c r="H2" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="I2" t="n">
         <v>1.04</v>
@@ -653,10 +653,10 @@
         <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="N2" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="O2" t="n">
         <v>1.44</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="G3" t="n">
-        <v>3.5</v>
+        <v>3.33</v>
       </c>
       <c r="H3" t="n">
-        <v>4.55</v>
+        <v>4.18</v>
       </c>
       <c r="I3" t="n">
         <v>1.06</v>
@@ -763,7 +763,7 @@
         <v>2.9</v>
       </c>
       <c r="M3" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="N3" t="n">
         <v>1.68</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="G4" t="n">
-        <v>3.5</v>
+        <v>3.28</v>
       </c>
       <c r="H4" t="n">
-        <v>4.33</v>
+        <v>3.47</v>
       </c>
       <c r="I4" t="n">
         <v>1.04</v>
@@ -873,7 +873,7 @@
         <v>3.3</v>
       </c>
       <c r="M4" t="n">
-        <v>1.9</v>
+        <v>1.72</v>
       </c>
       <c r="N4" t="n">
         <v>1.83</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.85</v>
+        <v>2.49</v>
       </c>
       <c r="G9" t="n">
-        <v>3.05</v>
+        <v>3.03</v>
       </c>
       <c r="H9" t="n">
-        <v>2.55</v>
+        <v>2.71</v>
       </c>
       <c r="I9" t="n">
         <v>1.11</v>
@@ -1423,10 +1423,10 @@
         <v>2.78</v>
       </c>
       <c r="M9" t="n">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="N9" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="O9" t="n">
         <v>1.5</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.3</v>
+        <v>2.82</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>3.11</v>
       </c>
       <c r="H10" t="n">
-        <v>2.16</v>
+        <v>2.21</v>
       </c>
       <c r="I10" t="n">
         <v>1.07</v>
@@ -1533,10 +1533,10 @@
         <v>3</v>
       </c>
       <c r="M10" t="n">
-        <v>2.25</v>
+        <v>1.96</v>
       </c>
       <c r="N10" t="n">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="O10" t="n">
         <v>1.44</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.28</v>
+        <v>2.14</v>
       </c>
       <c r="G11" t="n">
-        <v>3.05</v>
+        <v>3.23</v>
       </c>
       <c r="H11" t="n">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="I11" t="n">
         <v>1.09</v>
@@ -1643,10 +1643,10 @@
         <v>3</v>
       </c>
       <c r="M11" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="N11" t="n">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="O11" t="n">
         <v>1.44</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="G12" t="n">
-        <v>3.2</v>
+        <v>3.07</v>
       </c>
       <c r="H12" t="n">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="I12" t="n">
         <v>1.05</v>
@@ -1753,10 +1753,10 @@
         <v>3.25</v>
       </c>
       <c r="M12" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="N12" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="O12" t="n">
         <v>1.4</v>
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.4</v>
+        <v>2.29</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>3.07</v>
       </c>
       <c r="H13" t="n">
-        <v>2.95</v>
+        <v>2.72</v>
       </c>
       <c r="I13" t="n">
         <v>1.08</v>
@@ -1863,10 +1863,10 @@
         <v>2.55</v>
       </c>
       <c r="M13" t="n">
-        <v>2.28</v>
+        <v>2.47</v>
       </c>
       <c r="N13" t="n">
-        <v>1.58</v>
+        <v>1.48</v>
       </c>
       <c r="O13" t="n">
         <v>1.57</v>
@@ -1952,13 +1952,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="G14" t="n">
-        <v>3.3</v>
+        <v>3.58</v>
       </c>
       <c r="H14" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="I14" t="n">
         <v>1.06</v>
@@ -1973,10 +1973,10 @@
         <v>2.95</v>
       </c>
       <c r="M14" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="N14" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="O14" t="n">
         <v>1.5</v>
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.45</v>
+        <v>2.56</v>
       </c>
       <c r="G15" t="n">
-        <v>3.15</v>
+        <v>3.23</v>
       </c>
       <c r="H15" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="I15" t="n">
         <v>1.06</v>
@@ -2083,10 +2083,10 @@
         <v>3.21</v>
       </c>
       <c r="M15" t="n">
-        <v>2.05</v>
+        <v>1.94</v>
       </c>
       <c r="N15" t="n">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="O15" t="n">
         <v>1.44</v>

--- a/Jogos_do_Dia/2023-01-16_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-01-16_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="G2" t="n">
-        <v>2.99</v>
+        <v>3.2</v>
       </c>
       <c r="H2" t="n">
-        <v>2.25</v>
+        <v>2.59</v>
       </c>
       <c r="I2" t="n">
         <v>1.04</v>
@@ -716,7 +716,7 @@
         <v>3.1</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="3">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="G3" t="n">
-        <v>3.33</v>
+        <v>3.65</v>
       </c>
       <c r="H3" t="n">
-        <v>4.18</v>
+        <v>5.03</v>
       </c>
       <c r="I3" t="n">
         <v>1.06</v>
@@ -763,10 +763,10 @@
         <v>2.9</v>
       </c>
       <c r="M3" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="N3" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="O3" t="n">
         <v>1.44</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="G4" t="n">
-        <v>3.28</v>
+        <v>3.5</v>
       </c>
       <c r="H4" t="n">
-        <v>3.47</v>
+        <v>4.5</v>
       </c>
       <c r="I4" t="n">
         <v>1.04</v>
@@ -873,10 +873,10 @@
         <v>3.3</v>
       </c>
       <c r="M4" t="n">
-        <v>1.72</v>
+        <v>1.93</v>
       </c>
       <c r="N4" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="O4" t="n">
         <v>1.4</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.49</v>
+        <v>2.81</v>
       </c>
       <c r="G9" t="n">
-        <v>3.03</v>
+        <v>3.1</v>
       </c>
       <c r="H9" t="n">
-        <v>2.71</v>
+        <v>2.59</v>
       </c>
       <c r="I9" t="n">
         <v>1.11</v>
@@ -1423,10 +1423,10 @@
         <v>2.78</v>
       </c>
       <c r="M9" t="n">
-        <v>2.16</v>
+        <v>2.31</v>
       </c>
       <c r="N9" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="O9" t="n">
         <v>1.5</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.82</v>
+        <v>3.12</v>
       </c>
       <c r="G10" t="n">
-        <v>3.11</v>
+        <v>3.25</v>
       </c>
       <c r="H10" t="n">
-        <v>2.21</v>
+        <v>2.19</v>
       </c>
       <c r="I10" t="n">
         <v>1.07</v>
@@ -1575,13 +1575,13 @@
         <v>2.98</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AD10" t="n">
         <v>1.41</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="G11" t="n">
-        <v>3.23</v>
+        <v>3.1</v>
       </c>
       <c r="H11" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
         <v>1.09</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.5</v>
+        <v>2.76</v>
       </c>
       <c r="G12" t="n">
-        <v>3.07</v>
+        <v>3.25</v>
       </c>
       <c r="H12" t="n">
-        <v>2.48</v>
+        <v>2.47</v>
       </c>
       <c r="I12" t="n">
         <v>1.05</v>
@@ -1753,10 +1753,10 @@
         <v>3.25</v>
       </c>
       <c r="M12" t="n">
-        <v>1.82</v>
+        <v>1.99</v>
       </c>
       <c r="N12" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="O12" t="n">
         <v>1.4</v>
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.29</v>
+        <v>2.45</v>
       </c>
       <c r="G13" t="n">
-        <v>3.07</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
-        <v>2.72</v>
+        <v>3.09</v>
       </c>
       <c r="I13" t="n">
         <v>1.08</v>
@@ -1857,16 +1857,16 @@
         <v>6.2</v>
       </c>
       <c r="K13" t="n">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="L13" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="M13" t="n">
-        <v>2.47</v>
+        <v>2.41</v>
       </c>
       <c r="N13" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="O13" t="n">
         <v>1.57</v>
@@ -1952,13 +1952,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.83</v>
+        <v>1.94</v>
       </c>
       <c r="G14" t="n">
-        <v>3.58</v>
+        <v>3.35</v>
       </c>
       <c r="H14" t="n">
-        <v>4.8</v>
+        <v>3.98</v>
       </c>
       <c r="I14" t="n">
         <v>1.06</v>
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.56</v>
+        <v>2.41</v>
       </c>
       <c r="G15" t="n">
-        <v>3.23</v>
+        <v>3.15</v>
       </c>
       <c r="H15" t="n">
-        <v>2.5</v>
+        <v>3.01</v>
       </c>
       <c r="I15" t="n">
         <v>1.06</v>
@@ -2083,10 +2083,10 @@
         <v>3.21</v>
       </c>
       <c r="M15" t="n">
-        <v>1.94</v>
+        <v>1.99</v>
       </c>
       <c r="N15" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="O15" t="n">
         <v>1.44</v>
